--- a/result/vicuna13_1.6_self-const-limit/eval/xlsx/Vicuna_1.6_SC_Patrick_75.xlsx
+++ b/result/vicuna13_1.6_self-const-limit/eval/xlsx/Vicuna_1.6_SC_Patrick_75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickamadeus/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853316AC-5DF2-AA40-9A37-3D4DAF76D1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5187BAF-EA35-764D-A439-6D0AB5B20E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1457,7 +1457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1479,6 +1479,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,7 +1516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1530,6 +1536,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2534,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="124" workbookViewId="0">
+      <selection activeCell="G84" sqref="C84:G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2722,38 +2732,38 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>88</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>24</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <v>-1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <v>-1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="10">
         <v>-1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="10">
         <v>-1</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="10">
         <v>-1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="10" t="s">
         <v>437</v>
       </c>
     </row>
@@ -3282,38 +3292,38 @@
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <v>79</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="10">
         <v>60</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="10">
         <v>-1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="10">
         <v>-1</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="10">
         <v>-1</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="10">
         <v>-1</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="10">
         <v>-1</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="10" t="s">
         <v>428</v>
       </c>
     </row>
@@ -3387,38 +3397,38 @@
         <v>431</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="10">
         <v>70</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="10">
         <v>-1</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="10">
         <v>-1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="10">
         <v>-1</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="10">
         <v>-1</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="10">
         <v>-1</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="10" t="s">
         <v>373</v>
       </c>
     </row>
@@ -4262,38 +4272,38 @@
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
         <v>54</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="10">
         <v>9</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="10">
         <v>-1</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="10">
         <v>-1</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="10">
         <v>-1</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="10">
         <v>-1</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="10">
         <v>-1</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="10" t="s">
         <v>403</v>
       </c>
     </row>
@@ -4892,38 +4902,38 @@
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="68" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
         <v>57</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="10">
         <v>65</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="10">
         <v>-1</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="10">
         <v>-1</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="10">
         <v>-1</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="10">
         <v>-1</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="10">
         <v>-1</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="10" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5137,38 +5147,38 @@
         <v>382</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="75" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
         <v>77</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="10">
         <v>33</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="10">
         <v>-1</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="10">
         <v>-1</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="10">
         <v>-1</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="10">
         <v>-1</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="10">
         <v>-1</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L75" s="10" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5214,6 +5224,21 @@
       <c r="B77">
         <v>34</v>
       </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
       <c r="I77" t="s">
         <v>88</v>
       </c>
@@ -5234,6 +5259,21 @@
       <c r="B78">
         <v>32</v>
       </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
       <c r="I78" t="s">
         <v>94</v>
       </c>
@@ -5254,6 +5294,21 @@
       <c r="B79">
         <v>59</v>
       </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
       <c r="I79" t="s">
         <v>147</v>
       </c>
@@ -5273,6 +5328,21 @@
       </c>
       <c r="B80">
         <v>71</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
       </c>
       <c r="I80" t="s">
         <v>77</v>
@@ -5294,6 +5364,21 @@
       <c r="B81">
         <v>36</v>
       </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
       <c r="I81" t="s">
         <v>113</v>
       </c>
@@ -5307,23 +5392,38 @@
         <v>387</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+    <row r="82" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="9">
         <v>67</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="10">
         <v>69</v>
       </c>
-      <c r="I82" t="s">
+      <c r="C82" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D82" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F82" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G82" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I82" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L82" s="10" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5333,6 +5433,21 @@
       </c>
       <c r="B83">
         <v>51</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
       </c>
       <c r="I83" t="s">
         <v>139</v>
